--- a/data/ch09/지점별_일일_판매량_기본통계량_박스그래프.xlsx
+++ b/data/ch09/지점별_일일_판매량_기본통계량_박스그래프.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\myPyExcel\data\ch09\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D3D5E86-1ED0-4D31-94E3-9527E695C94B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="9255" yWindow="4620" windowWidth="14010" windowHeight="8895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -100,12 +94,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -113,15 +107,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -167,18 +154,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -199,13 +178,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="지점별_일일_판매량_분포.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="지점별_일일_판매량_분포.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -232,7 +205,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -274,7 +247,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -306,27 +279,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -358,24 +313,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -551,17 +488,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -584,7 +518,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -610,7 +544,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -630,13 +564,13 @@
         <v>249.7692307692308</v>
       </c>
       <c r="H3">
-        <v>259.69230769230768</v>
+        <v>259.6923076923077</v>
       </c>
       <c r="I3">
         <v>271</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -653,16 +587,16 @@
         <v>19</v>
       </c>
       <c r="G4">
-        <v>7.6828146551664922</v>
+        <v>7.682814655166492</v>
       </c>
       <c r="H4">
-        <v>6.7870540416371048</v>
+        <v>6.787054041637105</v>
       </c>
       <c r="I4">
-        <v>5.4772255750516612</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5.477225575051661</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -688,7 +622,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -714,7 +648,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -740,7 +674,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -766,7 +700,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -792,7 +726,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -806,7 +740,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -820,7 +754,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -834,7 +768,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -848,7 +782,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -863,7 +797,6 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
